--- a/doc/クラス構成図/クラス構成図_ストーリー_F2_fireworks.xlsx
+++ b/doc/クラス構成図/クラス構成図_ストーリー_F2_fireworks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\クラス構成図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E0594CF-01C2-4606-8B86-EDD3EF1DEED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB51C32-C1DB-47DD-977E-CCEC5B65FDCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -151,6 +151,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -434,7 +441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -494,16 +501,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,13 +531,16 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -539,7 +552,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,6 +623,142 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>52294</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>97117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119529</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5D1BAB-442B-4465-8A9B-3F7EB4BBD902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1068294" y="3204882"/>
+          <a:ext cx="590177" cy="605118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>186764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>149412</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B59C1D1C-323C-4777-9F5A-0CB2F0937CEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4893235" y="3488764"/>
+          <a:ext cx="590177" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -939,7 +1088,7 @@
   <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -965,43 +1114,43 @@
       </c>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
       <c r="W1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="X1" s="21"/>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="36" t="s">
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="28" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="30"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
@@ -1014,48 +1163,48 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="31">
+      <c r="X2" s="31"/>
+      <c r="Y2" s="33">
         <v>45089</v>
       </c>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="32" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="33">
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="35">
         <v>45089</v>
       </c>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="35"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="37"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
@@ -1068,38 +1217,38 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="20"/>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="27"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="28"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
